--- a/data/trans_orig/P1401-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>17585</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10042</v>
+        <v>9639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28716</v>
+        <v>27930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01804271716737053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01030373928065571</v>
+        <v>0.009890041268289114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02946268961299001</v>
+        <v>0.02865665780680223</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -764,19 +764,19 @@
         <v>38114</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26907</v>
+        <v>26630</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51759</v>
+        <v>52904</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02849038074760661</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02011307606976405</v>
+        <v>0.01990592966491884</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03868971994019198</v>
+        <v>0.03954547563935262</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -785,19 +785,19 @@
         <v>55700</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42274</v>
+        <v>42106</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73302</v>
+        <v>73782</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02408691763685618</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01828108997410902</v>
+        <v>0.01820860492444957</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0316990374914941</v>
+        <v>0.03190672010114611</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>957058</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>945927</v>
+        <v>946713</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>964601</v>
+        <v>965004</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9819572828326295</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9705373103870101</v>
+        <v>0.9713433421931974</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9896962607193444</v>
+        <v>0.9901099587317108</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1212</v>
@@ -835,19 +835,19 @@
         <v>1299683</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1286038</v>
+        <v>1284893</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1310890</v>
+        <v>1311167</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9715096192523934</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9613102800598081</v>
+        <v>0.960454524360647</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9798869239302359</v>
+        <v>0.9800940703350809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2104</v>
@@ -856,19 +856,19 @@
         <v>2256740</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2239138</v>
+        <v>2238658</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2270166</v>
+        <v>2270334</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9759130823631438</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9683009625085059</v>
+        <v>0.968093279898854</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.981718910025891</v>
+        <v>0.9817913950755505</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>19463</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11958</v>
+        <v>10862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31241</v>
+        <v>31747</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009910079253947228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006088514808078915</v>
+        <v>0.005530893703369761</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01590728233418398</v>
+        <v>0.01616500388254301</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -981,19 +981,19 @@
         <v>29191</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19454</v>
+        <v>19115</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42833</v>
+        <v>42391</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01663706052948898</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01108770523724903</v>
+        <v>0.01089424364262725</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02441208103286233</v>
+        <v>0.02415999408048689</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -1002,19 +1002,19 @@
         <v>48654</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35879</v>
+        <v>33826</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64647</v>
+        <v>64159</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01308419536276163</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0096486137502902</v>
+        <v>0.009096436792975443</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01738494643925024</v>
+        <v>0.01725381071803772</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1944494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1932716</v>
+        <v>1932210</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1951999</v>
+        <v>1953095</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9900899207460527</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9840927176658161</v>
+        <v>0.983834996117457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9939114851919211</v>
+        <v>0.9944691062966305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1608</v>
@@ -1052,19 +1052,19 @@
         <v>1725401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1711759</v>
+        <v>1712201</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1735138</v>
+        <v>1735477</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.983362939470511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9755879189671369</v>
+        <v>0.9758400059195133</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9889122947627509</v>
+        <v>0.9891057563573727</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3446</v>
@@ -1073,19 +1073,19 @@
         <v>3669895</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3653902</v>
+        <v>3654390</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3682670</v>
+        <v>3684723</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9869158046372384</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9826150535607497</v>
+        <v>0.9827461892819623</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9903513862497099</v>
+        <v>0.9909035632070246</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7473</v>
+        <v>6552</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004399460820800298</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01553018859348501</v>
+        <v>0.0136155023764854</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1198,19 +1198,19 @@
         <v>4312</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10952</v>
+        <v>10817</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009401223279206356</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002268916091619777</v>
+        <v>0.002238991467931851</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02387931537369666</v>
+        <v>0.02358464194003681</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1219,19 +1219,19 @@
         <v>6429</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2914</v>
+        <v>2315</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13703</v>
+        <v>14244</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006840334606395273</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00310111932718044</v>
+        <v>0.002462786784104502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0145803899943121</v>
+        <v>0.01515575885144694</v>
       </c>
     </row>
     <row r="11">
@@ -1248,7 +1248,7 @@
         <v>479064</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473708</v>
+        <v>474629</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>481181</v>
@@ -1257,7 +1257,7 @@
         <v>0.9956005391791997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.984469811406515</v>
+        <v>0.9863844976235155</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1269,19 +1269,19 @@
         <v>454319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>447679</v>
+        <v>447814</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457590</v>
+        <v>457604</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9905987767207937</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9761206846263032</v>
+        <v>0.9764153580599636</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9977310839083802</v>
+        <v>0.9977610085320682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>844</v>
@@ -1290,19 +1290,19 @@
         <v>933384</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>926110</v>
+        <v>925569</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>936899</v>
+        <v>937498</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9931596653936047</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9854196100056893</v>
+        <v>0.9848442411485533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9968988806728197</v>
+        <v>0.9975372132158955</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>39165</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27010</v>
+        <v>28717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53609</v>
+        <v>54791</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01145252015641331</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007898083766522212</v>
+        <v>0.008397456784908722</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0156760018457049</v>
+        <v>0.01602187298881028</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -1415,19 +1415,19 @@
         <v>71617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56137</v>
+        <v>54099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90575</v>
+        <v>90532</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02016808885684313</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01580863575613793</v>
+        <v>0.01523480320951421</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02550682819124786</v>
+        <v>0.02549463441824392</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -1436,19 +1436,19 @@
         <v>110782</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91137</v>
+        <v>92021</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136123</v>
+        <v>136428</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01589234758225061</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01307411993848261</v>
+        <v>0.01320096118694991</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01952766160110488</v>
+        <v>0.01957135007902902</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>3380617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3366173</v>
+        <v>3364991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3392772</v>
+        <v>3391065</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9885474798435867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9843239981542949</v>
+        <v>0.9839781270111901</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9921019162334774</v>
+        <v>0.9916025432150919</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3228</v>
@@ -1486,19 +1486,19 @@
         <v>3479403</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3460445</v>
+        <v>3460488</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3494883</v>
+        <v>3496921</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9798319111431568</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9744931718087522</v>
+        <v>0.9745053655817563</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9841913642438621</v>
+        <v>0.9847651967904858</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6394</v>
@@ -1507,19 +1507,19 @@
         <v>6860019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6834678</v>
+        <v>6834373</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6879664</v>
+        <v>6878780</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9841076524177493</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9804723383988946</v>
+        <v>0.9804286499209709</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9869258800615174</v>
+        <v>0.9867990388130499</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>13804</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7683</v>
+        <v>7547</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21888</v>
+        <v>21991</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01829900866802058</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0101853921554446</v>
+        <v>0.01000527837754118</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02901591785661095</v>
+        <v>0.02915261809164722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -1871,19 +1871,19 @@
         <v>27798</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17737</v>
+        <v>17741</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40828</v>
+        <v>40457</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02794723912346238</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01783252459722201</v>
+        <v>0.01783646148741353</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04104672093103701</v>
+        <v>0.04067389232439482</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -1892,19 +1892,19 @@
         <v>41602</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29566</v>
+        <v>29643</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57937</v>
+        <v>55511</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02378595688658508</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01690435126322463</v>
+        <v>0.01694824198916698</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03312584494636605</v>
+        <v>0.031738707880316</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>740543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>732459</v>
+        <v>732356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>746664</v>
+        <v>746800</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9817009913319794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9709840821433889</v>
+        <v>0.9708473819083527</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9898146078445553</v>
+        <v>0.9899947216224588</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>868</v>
@@ -1942,19 +1942,19 @@
         <v>966862</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>953832</v>
+        <v>954203</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>976923</v>
+        <v>976919</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9720527608765376</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.958953279068963</v>
+        <v>0.9593261076756052</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.982167475402778</v>
+        <v>0.9821635385125864</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1615</v>
@@ -1963,19 +1963,19 @@
         <v>1707405</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1691070</v>
+        <v>1693496</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1719441</v>
+        <v>1719364</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.976214043113415</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9668741550536339</v>
+        <v>0.9682612921196844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9830956487367755</v>
+        <v>0.983051758010833</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>13267</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7294</v>
+        <v>7349</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22269</v>
+        <v>22136</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006389636456813563</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003512878705028262</v>
+        <v>0.003539421307182424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01072478308561072</v>
+        <v>0.01066094831357386</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2088,19 +2088,19 @@
         <v>25676</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16929</v>
+        <v>17129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38457</v>
+        <v>38482</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01291345545097023</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008514241270053673</v>
+        <v>0.008615016885094631</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01934180618705177</v>
+        <v>0.01935431452327655</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -2109,19 +2109,19 @@
         <v>38943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28062</v>
+        <v>27487</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54716</v>
+        <v>54373</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009580857826283876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006903886617273512</v>
+        <v>0.006762272741896412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01346119957195926</v>
+        <v>0.01337691850986652</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>2063118</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2054116</v>
+        <v>2054249</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2069091</v>
+        <v>2069036</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9936103635431864</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9892752169143894</v>
+        <v>0.9893390516864264</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9964871212949717</v>
+        <v>0.9964605786928176</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1885</v>
@@ -2159,19 +2159,19 @@
         <v>1962624</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1949843</v>
+        <v>1949818</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1971371</v>
+        <v>1971171</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9870865445490298</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9806581938129489</v>
+        <v>0.980645685476724</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9914857587299464</v>
+        <v>0.9913849831149054</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3824</v>
@@ -2180,19 +2180,19 @@
         <v>4025742</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4009969</v>
+        <v>4010312</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4036623</v>
+        <v>4037198</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9904191421737161</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9865388004280407</v>
+        <v>0.9866230814901334</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9930961133827264</v>
+        <v>0.9932377272581036</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>2663</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7980</v>
+        <v>7272</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004869385445110273</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001341679018457258</v>
+        <v>0.001331673209668881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01459203431181798</v>
+        <v>0.01329660797731006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -2305,19 +2305,19 @@
         <v>17677</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10291</v>
+        <v>10545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28635</v>
+        <v>28846</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03218946598396271</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01874038839911952</v>
+        <v>0.01920265668730611</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05214431857624761</v>
+        <v>0.05252996558425406</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -2326,19 +2326,19 @@
         <v>20340</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12556</v>
+        <v>12723</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32009</v>
+        <v>31400</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01855751963838351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01145614684170002</v>
+        <v>0.01160810495388791</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02920451417553588</v>
+        <v>0.02864870069725569</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>544223</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538906</v>
+        <v>539614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>546152</v>
+        <v>546158</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9951306145548897</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9854079656881818</v>
+        <v>0.98670339202269</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986583209815427</v>
+        <v>0.9986683267903311</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>510</v>
@@ -2376,19 +2376,19 @@
         <v>531463</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>520505</v>
+        <v>520294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>538849</v>
+        <v>538595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9678105340160373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9478556814237523</v>
+        <v>0.9474700344157458</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9812596116008805</v>
+        <v>0.9807973433126939</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1008</v>
@@ -2397,19 +2397,19 @@
         <v>1075687</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1064018</v>
+        <v>1064627</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1083471</v>
+        <v>1083304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9814424803616165</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9707954858244641</v>
+        <v>0.971351299302744</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9885438531583</v>
+        <v>0.9883918950461121</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>29734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20763</v>
+        <v>19776</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40358</v>
+        <v>42018</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008803287886676607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006147158277806015</v>
+        <v>0.005855079626892952</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01194862975753141</v>
+        <v>0.01244002102630008</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -2522,19 +2522,19 @@
         <v>71150</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54601</v>
+        <v>54620</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89660</v>
+        <v>90620</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02014392395050158</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01545848435026411</v>
+        <v>0.01546377207294796</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02538432002216714</v>
+        <v>0.02565610637868524</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -2543,19 +2543,19 @@
         <v>100885</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81037</v>
+        <v>82999</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121879</v>
+        <v>124698</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01460037891581746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01172798012033362</v>
+        <v>0.01201194124454766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01763875373951194</v>
+        <v>0.01804682154782878</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>3347884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3337260</v>
+        <v>3335600</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3356855</v>
+        <v>3357842</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9911967121133234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9880513702424686</v>
+        <v>0.9875599789736998</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9938528417221941</v>
+        <v>0.9941449203731071</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3263</v>
@@ -2593,19 +2593,19 @@
         <v>3460950</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3442440</v>
+        <v>3441480</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3477499</v>
+        <v>3477480</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9798560760494984</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9746156799778328</v>
+        <v>0.9743438936213147</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9845415156497359</v>
+        <v>0.9845362279270521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6447</v>
@@ -2614,19 +2614,19 @@
         <v>6808833</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6787839</v>
+        <v>6785020</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6828681</v>
+        <v>6826719</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9853996210841826</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9823612462604879</v>
+        <v>0.9819531784521711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9882720198796663</v>
+        <v>0.9879880587554524</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>16899</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11273</v>
+        <v>11403</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25977</v>
+        <v>24414</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.029342021326452</v>
+        <v>0.02934202132645199</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01957429178208498</v>
+        <v>0.01979861172738115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04510463944281957</v>
+        <v>0.04239079318898327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -2978,19 +2978,19 @@
         <v>35348</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27964</v>
+        <v>27792</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45355</v>
+        <v>45428</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04311295009185448</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03410767919649966</v>
+        <v>0.03389783252629076</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05531866399720945</v>
+        <v>0.0554085808421145</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -2999,19 +2999,19 @@
         <v>52247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42886</v>
+        <v>42297</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65333</v>
+        <v>65029</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03743087166704132</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03072480636868644</v>
+        <v>0.03030279952024115</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04680661962902107</v>
+        <v>0.04658889841587822</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>559034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>549956</v>
+        <v>551519</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>564660</v>
+        <v>564530</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.970657978673548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9548953605571804</v>
+        <v>0.9576092068110169</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9804257082179151</v>
+        <v>0.9802013882726189</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1360</v>
@@ -3049,19 +3049,19 @@
         <v>784534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>774527</v>
+        <v>774454</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>791918</v>
+        <v>792090</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9568870499081453</v>
+        <v>0.9568870499081455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9446813360027911</v>
+        <v>0.9445914191578857</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9658923208035005</v>
+        <v>0.9661021674737093</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2023</v>
@@ -3070,19 +3070,19 @@
         <v>1343568</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1330482</v>
+        <v>1330786</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1352929</v>
+        <v>1353518</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9625691283329587</v>
+        <v>0.9625691283329585</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.953193380370979</v>
+        <v>0.9534111015841219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9692751936313138</v>
+        <v>0.969697200479759</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>39007</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29625</v>
+        <v>27704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53832</v>
+        <v>50850</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01751905022773522</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01330551822069002</v>
+        <v>0.01244241856894067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02417728583077237</v>
+        <v>0.02283797798952554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -3195,19 +3195,19 @@
         <v>38821</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30022</v>
+        <v>30335</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49539</v>
+        <v>48652</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.01790981545955296</v>
+        <v>0.01790981545955295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01385056201770345</v>
+        <v>0.01399485492335014</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02285449482367302</v>
+        <v>0.02244535236871686</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -3216,19 +3216,19 @@
         <v>77828</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63924</v>
+        <v>64291</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95179</v>
+        <v>93441</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01771181153857423</v>
+        <v>0.01771181153857424</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01454772233348995</v>
+        <v>0.01463117795538858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02166046950951261</v>
+        <v>0.0212649469800618</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>2187531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2172706</v>
+        <v>2175688</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2196913</v>
+        <v>2198834</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9824809497722645</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9758227141692274</v>
+        <v>0.977162022010474</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9866944817793096</v>
+        <v>0.9875575814310592</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2848</v>
@@ -3266,19 +3266,19 @@
         <v>2128764</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2118046</v>
+        <v>2118933</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2137563</v>
+        <v>2137250</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9820901845404468</v>
+        <v>0.9820901845404471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9771455051763268</v>
+        <v>0.9775546476312834</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9861494379822965</v>
+        <v>0.98600514507665</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4790</v>
@@ -3287,19 +3287,19 @@
         <v>4316294</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4298943</v>
+        <v>4300681</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4330198</v>
+        <v>4329831</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9822881884614256</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9783395304904876</v>
+        <v>0.978735053019938</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9854522776665106</v>
+        <v>0.9853688220446116</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>18601</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12153</v>
+        <v>12123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27875</v>
+        <v>28169</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02618244969730485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01710616626334063</v>
+        <v>0.01706344261877956</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03923556366716521</v>
+        <v>0.03964857016701148</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3412,19 +3412,19 @@
         <v>10649</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6100</v>
+        <v>6598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16677</v>
+        <v>16976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01449089444442429</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008301224912352757</v>
+        <v>0.008977722068178557</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02269315462505306</v>
+        <v>0.02309998957362515</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -3433,19 +3433,19 @@
         <v>29250</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21090</v>
+        <v>21184</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39715</v>
+        <v>40759</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02023789348712373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01459191700064604</v>
+        <v>0.01465702531450624</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02747820535373816</v>
+        <v>0.02820027245053104</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>691854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>682580</v>
+        <v>682286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>698302</v>
+        <v>698332</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9738175503026951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9607644363328348</v>
+        <v>0.9603514298329885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9828938337366594</v>
+        <v>0.9829365573812204</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>987</v>
@@ -3483,19 +3483,19 @@
         <v>724228</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>718200</v>
+        <v>717901</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>728777</v>
+        <v>728279</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9855091055555755</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9773068453749469</v>
+        <v>0.9769000104263752</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9916987750876475</v>
+        <v>0.9910222779318214</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1643</v>
@@ -3504,19 +3504,19 @@
         <v>1416082</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1405617</v>
+        <v>1404573</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1424242</v>
+        <v>1424148</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9797621065128763</v>
+        <v>0.9797621065128765</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9725217946462619</v>
+        <v>0.9717997275494689</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9854080829993539</v>
+        <v>0.9853429746854936</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>74507</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58826</v>
+        <v>60790</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90430</v>
+        <v>92826</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02120947632089455</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01674554001134682</v>
+        <v>0.01730459374302904</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02574216129875232</v>
+        <v>0.02642424529703868</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>148</v>
@@ -3629,19 +3629,19 @@
         <v>84818</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71521</v>
+        <v>71573</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98533</v>
+        <v>98366</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02278607302414368</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0192141009576108</v>
+        <v>0.01922795945241109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02647055590854857</v>
+        <v>0.02642595085257518</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>243</v>
@@ -3650,19 +3650,19 @@
         <v>159325</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139605</v>
+        <v>138335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180900</v>
+        <v>180071</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02202059132044932</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01929503917926498</v>
+        <v>0.01911959085414115</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02500251850056379</v>
+        <v>0.02488793854227589</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>3438418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3422495</v>
+        <v>3420099</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3454099</v>
+        <v>3452135</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9787905236791055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9742578387012477</v>
+        <v>0.9735757547029613</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9832544599886532</v>
+        <v>0.9826954062569708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5195</v>
@@ -3700,19 +3700,19 @@
         <v>3637526</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3623811</v>
+        <v>3623978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3650823</v>
+        <v>3650771</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9772139269758563</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9735294440914511</v>
+        <v>0.9735740491474248</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9807858990423893</v>
+        <v>0.9807720405475888</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8456</v>
@@ -3721,19 +3721,19 @@
         <v>7075944</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7054369</v>
+        <v>7055198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7095664</v>
+        <v>7096934</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9779794086795506</v>
+        <v>0.9779794086795508</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9749974814994362</v>
+        <v>0.9751120614577241</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.980704960820735</v>
+        <v>0.9808804091458586</v>
       </c>
     </row>
     <row r="15">
